--- a/docs/test cases/allele/AlleleServiceTests.xlsx
+++ b/docs/test cases/allele/AlleleServiceTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Desktop\Projeto\PhyloDB\docs\test cases\allele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8976A0-11D7-4CA5-8957-98A4E40B1722}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB017CE-70C6-46CE-BA70-CF7480403993}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="59">
   <si>
     <t>Parameter</t>
   </si>
@@ -187,6 +187,27 @@
   </si>
   <si>
     <t>f</t>
+  </si>
+  <si>
+    <t>1, n elements</t>
+  </si>
+  <si>
+    <t>flag</t>
+  </si>
+  <si>
+    <t>skip, update</t>
+  </si>
+  <si>
+    <t>0, all</t>
+  </si>
+  <si>
+    <t>skip</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>update</t>
   </si>
 </sst>
 </file>
@@ -308,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -364,6 +385,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -373,7 +403,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -381,18 +423,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -719,7 +749,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="27" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -730,7 +760,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
@@ -739,7 +769,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -750,7 +780,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
@@ -762,10 +792,10 @@
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="24"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="7" t="s">
         <v>9</v>
       </c>
@@ -877,7 +907,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="27" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -888,7 +918,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="6" t="s">
         <v>5</v>
       </c>
@@ -897,7 +927,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="27" t="s">
         <v>47</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -908,7 +938,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="6" t="s">
         <v>5</v>
       </c>
@@ -917,10 +947,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="25"/>
@@ -930,7 +960,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="8" t="s">
         <v>17</v>
       </c>
@@ -995,7 +1025,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="29" t="s">
         <v>40</v>
       </c>
       <c r="B32" s="15" t="s">
@@ -1006,7 +1036,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="10" t="s">
         <v>5</v>
       </c>
@@ -1015,7 +1045,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="29" t="s">
         <v>45</v>
       </c>
       <c r="B34" s="15" t="s">
@@ -1026,7 +1056,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="28"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="15" t="s">
         <v>5</v>
       </c>
@@ -1035,7 +1065,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="27" t="s">
         <v>18</v>
       </c>
       <c r="B36" s="10" t="s">
@@ -1046,7 +1076,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="27"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="10" t="s">
         <v>5</v>
       </c>
@@ -1055,7 +1085,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="27" t="s">
         <v>32</v>
       </c>
       <c r="B38" s="10" t="s">
@@ -1066,7 +1096,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="27"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="10" t="s">
         <v>5</v>
       </c>
@@ -1086,20 +1116,20 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="25"/>
-      <c r="D42" s="22"/>
+      <c r="D42" s="26"/>
       <c r="E42" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="20"/>
+      <c r="A43" s="23"/>
       <c r="B43" s="11" t="s">
         <v>40</v>
       </c>
@@ -1214,7 +1244,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="27" t="s">
         <v>18</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -1225,7 +1255,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="27"/>
+      <c r="A53" s="28"/>
       <c r="B53" s="6" t="s">
         <v>5</v>
       </c>
@@ -1234,7 +1264,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="26" t="s">
+      <c r="A54" s="27" t="s">
         <v>32</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -1245,7 +1275,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="27"/>
+      <c r="A55" s="28"/>
       <c r="B55" s="6" t="s">
         <v>5</v>
       </c>
@@ -1254,19 +1284,19 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="22"/>
+      <c r="C57" s="26"/>
       <c r="D57" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="20"/>
+      <c r="A58" s="23"/>
       <c r="B58" s="5" t="s">
         <v>17</v>
       </c>
@@ -1322,7 +1352,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="28" t="s">
+      <c r="A64" s="29" t="s">
         <v>40</v>
       </c>
       <c r="B64" s="18" t="s">
@@ -1332,8 +1362,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="28"/>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="29"/>
       <c r="B65" s="18" t="s">
         <v>5</v>
       </c>
@@ -1341,7 +1371,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="18" t="s">
         <v>48</v>
       </c>
@@ -1349,118 +1379,268 @@
         <v>48</v>
       </c>
       <c r="C66" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="29"/>
+      <c r="B68" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="23"/>
+      <c r="B74" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E74" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F74" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="21">
+        <v>1</v>
+      </c>
+      <c r="B75" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" s="21" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B67" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B68" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="19" t="s">
+      <c r="D75" s="21">
+        <v>0</v>
+      </c>
+      <c r="E75" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F75" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G75" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="21">
+        <v>2</v>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D76" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E76" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F76" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G76" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="21">
+        <v>3</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D77" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F77" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G77" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="21">
+        <v>4</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D78" s="21">
+        <v>0</v>
+      </c>
+      <c r="E78" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F78" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G78" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="18">
+        <v>5</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E79" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F79" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G79" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="18">
+        <v>6</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F80" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G80" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="18">
         <v>7</v>
       </c>
-      <c r="B70" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="25"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="20"/>
-      <c r="B71" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F71"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="18">
-        <v>1</v>
-      </c>
-      <c r="B72" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C72" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D72" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E72" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F72"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="18">
-        <v>2</v>
-      </c>
-      <c r="B73" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C73" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D73" s="18" t="s">
+      <c r="B81" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E73" s="18" t="s">
+      <c r="C81" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E81" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F81" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G81" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F73"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="18">
-        <v>3</v>
-      </c>
-      <c r="B74" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C74" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D74" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E74" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F74"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:D70"/>
+  <mergeCells count="21">
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A73:A74"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A38:A39"/>
@@ -1475,10 +1655,6 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A52:A53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
